--- a/apl/ps_stats.xlsx
+++ b/apl/ps_stats.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,15 +501,30 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
+          <t>nb_pa_outer_ps_cabinet</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>nb_pa_outer_ps</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>delta_pa_outer_ps</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>nb_rpps_cabinet</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>np_rpps</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>delta_rpps</t>
         </is>
@@ -519,49 +534,50 @@
       <c r="A2" t="n">
         <v>10</v>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Généraliste</t>
+        </is>
+      </c>
       <c r="C2" t="n">
-        <v>23</v>
-      </c>
-      <c r="D2" t="n">
-        <v>51488</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>58199</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>-1</v>
-      </c>
+        <v>54811</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50966</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>-1</v>
-      </c>
+        <v>46845</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>51498</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>-1</v>
-      </c>
+        <v>46621</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
       <c r="N2" t="n">
-        <v>14129</v>
+        <v>58618</v>
       </c>
       <c r="O2" t="n">
-        <v>14129</v>
-      </c>
-      <c r="P2" t="n">
-        <v>-0.7255865444375389</v>
-      </c>
+        <v>52392</v>
+      </c>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="n">
+        <v>13667</v>
+      </c>
+      <c r="R2" t="n">
+        <v>13667</v>
+      </c>
+      <c r="S2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
